--- a/Functional Unit Checklist.xlsx
+++ b/Functional Unit Checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bolajik/Documents/KiCad/Optimized Radar/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bolajik/Downloads/Optimized Radar/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F03F51DD-5780-4F44-B3B9-D3DC6FC6D9F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{246ABEF5-05DD-7140-86EE-D6B1418DFCBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="6780" windowWidth="27640" windowHeight="16940" xr2:uid="{8A10B9C9-EB10-1444-8B3B-A206574EDB6B}"/>
+    <workbookView xWindow="4640" yWindow="4160" windowWidth="27640" windowHeight="16940" xr2:uid="{8A10B9C9-EB10-1444-8B3B-A206574EDB6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>5.5V Rail</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>Antennas</t>
+  </si>
+  <si>
+    <t>Shift Center Frequency</t>
   </si>
 </sst>
 </file>
@@ -129,7 +132,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +157,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -167,11 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -569,12 +579,13 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:B15"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -638,8 +649,11 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,7 +673,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="4" t="s">
         <v>16</v>
       </c>
     </row>
@@ -699,7 +713,7 @@
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="A24" s="4" t="s">
         <v>25</v>
       </c>
     </row>
